--- a/SummaryAndOverview.xlsx
+++ b/SummaryAndOverview.xlsx
@@ -162,7 +162,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,13 +173,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -647,148 +640,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1146,7 +1139,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/SummaryAndOverview.xlsx
+++ b/SummaryAndOverview.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$48</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -50,10 +53,10 @@
     <t>end_lon</t>
   </si>
   <si>
-    <t>Driving_Duration(s)</t>
-  </si>
-  <si>
-    <t>Driving_Distance(m)</t>
+    <t>LCV_Duration(s)</t>
+  </si>
+  <si>
+    <t>LCV_Distance(m)</t>
   </si>
   <si>
     <t>Trucking_Duration(s)</t>
@@ -1149,8 +1152,8 @@
     <col min="3" max="3" width="15.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="27.5714285714286" customWidth="1"/>
     <col min="5" max="8" width="10.5714285714286" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="20.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="16.5714285714286" customWidth="1"/>
+    <col min="10" max="10" width="17.4285714285714" customWidth="1"/>
     <col min="11" max="11" width="21.2857142857143" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
   </cols>
@@ -1216,16 +1219,16 @@
         <v>83.182082</v>
       </c>
       <c r="I2">
-        <v>102041.1</v>
+        <v>101992</v>
       </c>
       <c r="J2">
-        <v>1727601.9</v>
+        <v>1727607.8</v>
       </c>
       <c r="K2">
-        <v>129433.6</v>
+        <v>129278.1</v>
       </c>
       <c r="L2">
-        <v>1738745</v>
+        <v>1738759.3</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1254,16 +1257,16 @@
         <v>81.379906</v>
       </c>
       <c r="I3">
-        <v>79418.7</v>
+        <v>79372.5</v>
       </c>
       <c r="J3">
-        <v>1369632.5</v>
+        <v>1369642.8</v>
       </c>
       <c r="K3">
-        <v>100838.5</v>
+        <v>100681.3</v>
       </c>
       <c r="L3">
-        <v>1380775.6</v>
+        <v>1380794.3</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1292,16 +1295,16 @@
         <v>81.631294</v>
       </c>
       <c r="I4">
-        <v>81441</v>
+        <v>81369.7</v>
       </c>
       <c r="J4">
-        <v>1399348.5</v>
+        <v>1399355.7</v>
       </c>
       <c r="K4">
-        <v>103051.5</v>
+        <v>102890</v>
       </c>
       <c r="L4">
-        <v>1410491.6</v>
+        <v>1410507.2</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1330,16 +1333,16 @@
         <v>78.58994</v>
       </c>
       <c r="I5">
-        <v>49872.9</v>
+        <v>49865.7</v>
       </c>
       <c r="J5">
-        <v>907597</v>
+        <v>906915.6</v>
       </c>
       <c r="K5">
-        <v>63829.3</v>
+        <v>63829</v>
       </c>
       <c r="L5">
-        <v>904886.6</v>
+        <v>904890.4</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1368,16 +1371,16 @@
         <v>81.369715</v>
       </c>
       <c r="I6">
-        <v>70920.6</v>
+        <v>71241</v>
       </c>
       <c r="J6">
-        <v>1171071.3</v>
+        <v>1169380.6</v>
       </c>
       <c r="K6">
-        <v>93930.3</v>
+        <v>94823.3</v>
       </c>
       <c r="L6">
-        <v>1180464.2</v>
+        <v>1222557.5</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1406,16 +1409,16 @@
         <v>81.369715</v>
       </c>
       <c r="I7">
-        <v>70920.6</v>
+        <v>71241</v>
       </c>
       <c r="J7">
-        <v>1171071.3</v>
+        <v>1169380.6</v>
       </c>
       <c r="K7">
-        <v>93930.3</v>
+        <v>94823.3</v>
       </c>
       <c r="L7">
-        <v>1180464.2</v>
+        <v>1222557.5</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1444,16 +1447,16 @@
         <v>80.84508</v>
       </c>
       <c r="I8">
-        <v>65047.2</v>
+        <v>65034.2</v>
       </c>
       <c r="J8">
-        <v>1184206.2</v>
+        <v>1184201.7</v>
       </c>
       <c r="K8">
-        <v>81655.5</v>
+        <v>81635</v>
       </c>
       <c r="L8">
-        <v>1181495.8</v>
+        <v>1181488.6</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1482,16 +1485,16 @@
         <v>75.027726</v>
       </c>
       <c r="I9">
-        <v>27471</v>
+        <v>26620.8</v>
       </c>
       <c r="J9">
-        <v>441971.6</v>
+        <v>419999.7</v>
       </c>
       <c r="K9">
-        <v>35244.7</v>
+        <v>35388</v>
       </c>
       <c r="L9">
-        <v>456403</v>
+        <v>454878.1</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1520,16 +1523,16 @@
         <v>74.875342</v>
       </c>
       <c r="I10">
-        <v>26942</v>
+        <v>26285.1</v>
       </c>
       <c r="J10">
-        <v>436934.2</v>
+        <v>436940.7</v>
       </c>
       <c r="K10">
-        <v>34128.1</v>
+        <v>34117.3</v>
       </c>
       <c r="L10">
-        <v>434568.1</v>
+        <v>434571.9</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1558,16 +1561,16 @@
         <v>81.319384</v>
       </c>
       <c r="I11">
-        <v>68696.1</v>
+        <v>68693.5</v>
       </c>
       <c r="J11">
-        <v>1240618.4</v>
+        <v>1240624.3</v>
       </c>
       <c r="K11">
-        <v>85739.9</v>
+        <v>85728.9</v>
       </c>
       <c r="L11">
-        <v>1237386.5</v>
+        <v>1237389.7</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1596,16 +1599,16 @@
         <v>77.443705</v>
       </c>
       <c r="I12">
-        <v>40523</v>
+        <v>40516.3</v>
       </c>
       <c r="J12">
-        <v>679678.1</v>
+        <v>679626.8</v>
       </c>
       <c r="K12">
-        <v>52381.2</v>
+        <v>52364.4</v>
       </c>
       <c r="L12">
-        <v>690228.1</v>
+        <v>689029.4</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1634,16 +1637,16 @@
         <v>73.819012</v>
       </c>
       <c r="I13">
-        <v>41496.7</v>
+        <v>40307.4</v>
       </c>
       <c r="J13">
-        <v>751026.8</v>
+        <v>748657.6</v>
       </c>
       <c r="K13">
-        <v>51458.2</v>
+        <v>50279.8</v>
       </c>
       <c r="L13">
-        <v>759967.1</v>
+        <v>763663</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1672,16 +1675,16 @@
         <v>75.619738</v>
       </c>
       <c r="I14">
-        <v>33465.9</v>
+        <v>33474.7</v>
       </c>
       <c r="J14">
-        <v>542344.6</v>
+        <v>542352.2</v>
       </c>
       <c r="K14">
-        <v>42371.2</v>
+        <v>42419.8</v>
       </c>
       <c r="L14">
-        <v>553650</v>
+        <v>552743.3</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1710,16 +1713,16 @@
         <v>78.173541</v>
       </c>
       <c r="I15">
-        <v>51449</v>
+        <v>51415.4</v>
       </c>
       <c r="J15">
-        <v>932387.1</v>
+        <v>932371.5</v>
       </c>
       <c r="K15">
-        <v>68669.6</v>
+        <v>68662.8</v>
       </c>
       <c r="L15">
-        <v>917584.7</v>
+        <v>917566.4</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1748,16 +1751,16 @@
         <v>79.914648</v>
       </c>
       <c r="I16">
-        <v>58098.7</v>
+        <v>58109.6</v>
       </c>
       <c r="J16">
-        <v>987094.8</v>
+        <v>987043.6</v>
       </c>
       <c r="K16">
-        <v>77304.3</v>
+        <v>77284.5</v>
       </c>
       <c r="L16">
-        <v>997676.3</v>
+        <v>996477.6</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1786,16 +1789,16 @@
         <v>75.862618</v>
       </c>
       <c r="I17">
-        <v>29700.8</v>
+        <v>29724.1</v>
       </c>
       <c r="J17">
-        <v>490035.8</v>
+        <v>490070</v>
       </c>
       <c r="K17">
-        <v>38205.9</v>
+        <v>38239.8</v>
       </c>
       <c r="L17">
-        <v>500369.3</v>
+        <v>499437.7</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1824,16 +1827,16 @@
         <v>76.05708</v>
       </c>
       <c r="I18">
-        <v>31924.4</v>
+        <v>31917.4</v>
       </c>
       <c r="J18">
-        <v>520973.1</v>
+        <v>520969.1</v>
       </c>
       <c r="K18">
-        <v>40806.2</v>
+        <v>40821.4</v>
       </c>
       <c r="L18">
-        <v>538841.9</v>
+        <v>537923.7</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1862,16 +1865,16 @@
         <v>78.723752</v>
       </c>
       <c r="I19">
-        <v>50271.3</v>
+        <v>50267</v>
       </c>
       <c r="J19">
-        <v>839384.1</v>
+        <v>839380</v>
       </c>
       <c r="K19">
-        <v>67847</v>
+        <v>67769.8</v>
       </c>
       <c r="L19">
-        <v>875559.7</v>
+        <v>874635.8</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1900,16 +1903,16 @@
         <v>77.718484</v>
       </c>
       <c r="I20">
-        <v>45231.7</v>
+        <v>45266.8</v>
       </c>
       <c r="J20">
-        <v>749520.1</v>
+        <v>749526.9</v>
       </c>
       <c r="K20">
-        <v>57769.5</v>
+        <v>57624.6</v>
       </c>
       <c r="L20">
-        <v>713195.9</v>
+        <v>712247.7</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1938,16 +1941,16 @@
         <v>75.782609</v>
       </c>
       <c r="I21">
-        <v>32277.2</v>
+        <v>32285.6</v>
       </c>
       <c r="J21">
-        <v>533629.1</v>
+        <v>533637.4</v>
       </c>
       <c r="K21">
-        <v>42679.3</v>
+        <v>42538.1</v>
       </c>
       <c r="L21">
-        <v>524328.7</v>
+        <v>518560.8</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1976,16 +1979,16 @@
         <v>77.708465</v>
       </c>
       <c r="I22">
-        <v>89771.9</v>
+        <v>88789.2</v>
       </c>
       <c r="J22">
-        <v>1613264.5</v>
+        <v>1611896.5</v>
       </c>
       <c r="K22">
-        <v>109215.8</v>
+        <v>109047.3</v>
       </c>
       <c r="L22">
-        <v>1624884.5</v>
+        <v>1632381.5</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2014,16 +2017,16 @@
         <v>88.417118</v>
       </c>
       <c r="I23">
-        <v>114106.1</v>
+        <v>113541.5</v>
       </c>
       <c r="J23">
-        <v>2177264</v>
+        <v>2186670.5</v>
       </c>
       <c r="K23">
-        <v>142664.6</v>
+        <v>142088.2</v>
       </c>
       <c r="L23">
-        <v>2128944.2</v>
+        <v>2143188.1</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2052,16 +2055,16 @@
         <v>69.724379</v>
       </c>
       <c r="I24">
-        <v>20495.6</v>
+        <v>19810.6</v>
       </c>
       <c r="J24">
-        <v>334297.1</v>
+        <v>313201.2</v>
       </c>
       <c r="K24">
-        <v>26788.9</v>
+        <v>26090.5</v>
       </c>
       <c r="L24">
-        <v>334297.1</v>
+        <v>318126.3</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2090,16 +2093,16 @@
         <v>77.305686</v>
       </c>
       <c r="I25">
-        <v>45863.7</v>
+        <v>45859</v>
       </c>
       <c r="J25">
-        <v>768087.3</v>
+        <v>768083.3</v>
       </c>
       <c r="K25">
-        <v>57106.5</v>
+        <v>57123.2</v>
       </c>
       <c r="L25">
-        <v>781811.7</v>
+        <v>780893.4</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2128,16 +2131,16 @@
         <v>78.83134</v>
       </c>
       <c r="I26">
-        <v>19089.4</v>
+        <v>18790.9</v>
       </c>
       <c r="J26">
-        <v>276144.9</v>
+        <v>276614.3</v>
       </c>
       <c r="K26">
-        <v>24904.4</v>
+        <v>24937.8</v>
       </c>
       <c r="L26">
-        <v>290287.6</v>
+        <v>291122.5</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2166,16 +2169,16 @@
         <v>76.084837</v>
       </c>
       <c r="I27">
-        <v>19598.6</v>
+        <v>19593</v>
       </c>
       <c r="J27">
-        <v>308423.5</v>
+        <v>308425.5</v>
       </c>
       <c r="K27">
-        <v>25328.8</v>
+        <v>25320.3</v>
       </c>
       <c r="L27">
-        <v>308423.5</v>
+        <v>308425.5</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2204,16 +2207,16 @@
         <v>78.58994</v>
       </c>
       <c r="I28">
-        <v>23388.5</v>
+        <v>23318.9</v>
       </c>
       <c r="J28">
-        <v>432172.1</v>
+        <v>432166</v>
       </c>
       <c r="K28">
-        <v>27160.2</v>
+        <v>27093.3</v>
       </c>
       <c r="L28">
-        <v>439115.9</v>
+        <v>432166</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2242,16 +2245,16 @@
         <v>81.369715</v>
       </c>
       <c r="I29">
-        <v>50429.5</v>
+        <v>50685.8</v>
       </c>
       <c r="J29">
-        <v>986196.4</v>
+        <v>988403.2</v>
       </c>
       <c r="K29">
-        <v>61129.2</v>
+        <v>61309.9</v>
       </c>
       <c r="L29">
-        <v>972096.5</v>
+        <v>889022.8</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2280,16 +2283,16 @@
         <v>81.369715</v>
       </c>
       <c r="I30">
-        <v>50429.5</v>
+        <v>50685.8</v>
       </c>
       <c r="J30">
-        <v>986196.4</v>
+        <v>988403.2</v>
       </c>
       <c r="K30">
-        <v>61129.2</v>
+        <v>61309.9</v>
       </c>
       <c r="L30">
-        <v>972096.5</v>
+        <v>889022.8</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2318,16 +2321,16 @@
         <v>80.84508</v>
       </c>
       <c r="I31">
-        <v>35659.9</v>
+        <v>36060.5</v>
       </c>
       <c r="J31">
-        <v>748376.4</v>
+        <v>745585.9</v>
       </c>
       <c r="K31">
-        <v>41843.2</v>
+        <v>44603.4</v>
       </c>
       <c r="L31">
-        <v>735410</v>
+        <v>702796.9</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2356,16 +2359,16 @@
         <v>75.027726</v>
       </c>
       <c r="I32">
-        <v>33985.4</v>
+        <v>33966.9</v>
       </c>
       <c r="J32">
-        <v>746508.1</v>
+        <v>747487.3</v>
       </c>
       <c r="K32">
-        <v>45810.9</v>
+        <v>45946.5</v>
       </c>
       <c r="L32">
-        <v>755153.7</v>
+        <v>748568.2</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2394,16 +2397,16 @@
         <v>74.875342</v>
       </c>
       <c r="I33">
-        <v>33021.8</v>
+        <v>32984.9</v>
       </c>
       <c r="J33">
-        <v>591461.6</v>
+        <v>654661.5</v>
       </c>
       <c r="K33">
-        <v>42757.6</v>
+        <v>42629.9</v>
       </c>
       <c r="L33">
-        <v>591805.9</v>
+        <v>591813.4</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2432,16 +2435,16 @@
         <v>81.319384</v>
       </c>
       <c r="I34">
-        <v>39211.3</v>
+        <v>39621.2</v>
       </c>
       <c r="J34">
-        <v>801924.1</v>
+        <v>799133.7</v>
       </c>
       <c r="K34">
-        <v>45841.4</v>
+        <v>48697.3</v>
       </c>
       <c r="L34">
-        <v>788436.2</v>
+        <v>758698.1</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2470,16 +2473,16 @@
         <v>77.443705</v>
       </c>
       <c r="I35">
-        <v>42439.1</v>
+        <v>42327.7</v>
       </c>
       <c r="J35">
-        <v>748387.3</v>
+        <v>748325.5</v>
       </c>
       <c r="K35">
-        <v>55320.6</v>
+        <v>55229.1</v>
       </c>
       <c r="L35">
-        <v>749957.8</v>
+        <v>742713.9</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2508,16 +2511,16 @@
         <v>73.819012</v>
       </c>
       <c r="I36">
-        <v>74654.4</v>
+        <v>74596.9</v>
       </c>
       <c r="J36">
-        <v>1436695.1</v>
+        <v>1437926.2</v>
       </c>
       <c r="K36">
-        <v>97182.5</v>
+        <v>97548.9</v>
       </c>
       <c r="L36">
-        <v>1422828.1</v>
+        <v>1421247.7</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2546,16 +2549,16 @@
         <v>75.619738</v>
       </c>
       <c r="I37">
-        <v>46867.7</v>
+        <v>46854.3</v>
       </c>
       <c r="J37">
-        <v>962537.3</v>
+        <v>963517.9</v>
       </c>
       <c r="K37">
-        <v>62266.8</v>
+        <v>62430.4</v>
       </c>
       <c r="L37">
-        <v>969481.2</v>
+        <v>963517.9</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2584,16 +2587,16 @@
         <v>78.173541</v>
       </c>
       <c r="I38">
-        <v>17665.4</v>
+        <v>17600.4</v>
       </c>
       <c r="J38">
-        <v>317979.3</v>
+        <v>317973.2</v>
       </c>
       <c r="K38">
-        <v>20645.1</v>
+        <v>20577.5</v>
       </c>
       <c r="L38">
-        <v>326279.7</v>
+        <v>319329.8</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2622,16 +2625,16 @@
         <v>79.914648</v>
       </c>
       <c r="I39">
-        <v>46028</v>
+        <v>45923.8</v>
       </c>
       <c r="J39">
-        <v>843118.2</v>
+        <v>843112.1</v>
       </c>
       <c r="K39">
-        <v>53433.7</v>
+        <v>53360.1</v>
       </c>
       <c r="L39">
-        <v>850062</v>
+        <v>843112.1</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2660,16 +2663,16 @@
         <v>75.862618</v>
       </c>
       <c r="I40">
-        <v>40724.8</v>
+        <v>40674.2</v>
       </c>
       <c r="J40">
-        <v>790446.7</v>
+        <v>790468.8</v>
       </c>
       <c r="K40">
-        <v>55016.8</v>
+        <v>54952.6</v>
       </c>
       <c r="L40">
-        <v>816487.1</v>
+        <v>809377.5</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2698,16 +2701,16 @@
         <v>76.05708</v>
       </c>
       <c r="I41">
-        <v>40136.1</v>
+        <v>40069.1</v>
       </c>
       <c r="J41">
-        <v>778167.2</v>
+        <v>778160.1</v>
       </c>
       <c r="K41">
-        <v>52820.3</v>
+        <v>52797.3</v>
       </c>
       <c r="L41">
-        <v>791291.3</v>
+        <v>784340.4</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2736,16 +2739,16 @@
         <v>78.723752</v>
       </c>
       <c r="I42">
-        <v>34905.1</v>
+        <v>34831.3</v>
       </c>
       <c r="J42">
-        <v>638752.8</v>
+        <v>638746.7</v>
       </c>
       <c r="K42">
-        <v>40130</v>
+        <v>40055.5</v>
       </c>
       <c r="L42">
-        <v>646200.3</v>
+        <v>639250.4</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2774,16 +2777,16 @@
         <v>77.718484</v>
       </c>
       <c r="I43">
-        <v>47147.8</v>
+        <v>47078.2</v>
       </c>
       <c r="J43">
-        <v>818229.3</v>
+        <v>818225.5</v>
       </c>
       <c r="K43">
-        <v>59793.2</v>
+        <v>59598.5</v>
       </c>
       <c r="L43">
-        <v>923052.3</v>
+        <v>861635.7</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2812,16 +2815,16 @@
         <v>75.782609</v>
       </c>
       <c r="I44">
-        <v>37336.2</v>
+        <v>37272.4</v>
       </c>
       <c r="J44">
-        <v>739635.9</v>
+        <v>739738</v>
       </c>
       <c r="K44">
-        <v>49061.1</v>
+        <v>49034.4</v>
       </c>
       <c r="L44">
-        <v>746132.8</v>
+        <v>739185.1</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2850,16 +2853,16 @@
         <v>77.708465</v>
       </c>
       <c r="I45">
-        <v>115667.3</v>
+        <v>115643.5</v>
       </c>
       <c r="J45">
-        <v>2105697.6</v>
+        <v>2105698.4</v>
       </c>
       <c r="K45">
-        <v>138748.8</v>
+        <v>138679.5</v>
       </c>
       <c r="L45">
-        <v>2117003.4</v>
+        <v>2110060.3</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2888,16 +2891,16 @@
         <v>88.417118</v>
       </c>
       <c r="I46">
-        <v>73907.9</v>
+        <v>73235.7</v>
       </c>
       <c r="J46">
-        <v>1490535.2</v>
+        <v>1499940.7</v>
       </c>
       <c r="K46">
-        <v>89481.4</v>
+        <v>88857.7</v>
       </c>
       <c r="L46">
-        <v>1439371.1</v>
+        <v>1446673</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2926,16 +2929,16 @@
         <v>69.724379</v>
       </c>
       <c r="I47">
-        <v>63028.9</v>
+        <v>55854.4</v>
       </c>
       <c r="J47">
-        <v>1112118.3</v>
+        <v>1124928.6</v>
       </c>
       <c r="K47">
-        <v>79962.3</v>
+        <v>71322.5</v>
       </c>
       <c r="L47">
-        <v>1112118.3</v>
+        <v>1137005.9</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2964,19 +2967,22 @@
         <v>77.305686</v>
       </c>
       <c r="I48">
-        <v>29990</v>
+        <v>29887.5</v>
       </c>
       <c r="J48">
-        <v>531290.9</v>
+        <v>531263.9</v>
       </c>
       <c r="K48">
-        <v>38097.8</v>
+        <v>38034.1</v>
       </c>
       <c r="L48">
-        <v>534568.3</v>
+        <v>527599.4</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:L48" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/SummaryAndOverview.xlsx
+++ b/SummaryAndOverview.xlsx
@@ -2980,9 +2980,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:L48" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
